--- a/biology/Botanique/Pál_Kitaibel/Pál_Kitaibel.xlsx
+++ b/biology/Botanique/Pál_Kitaibel/Pál_Kitaibel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A1l_Kitaibel</t>
+          <t>Pál_Kitaibel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pál Kitaibel est un médecin et professeur, à la fois botaniste et chimiste hongrois, né en 1757 à Mattersburg (ville de la frontière hongroise connue aussi sous son nom hongrois de Nagymarton) et mort en 1817 à Budapest.
 Formé à la médecine, Paul étudie la chimie et la botanique à l’université de Buda. Il devient professeur et enseigne ces deux disciplines à Pest en 1794. Outre des travaux sur la flore et l’hydrographie de la Hongrie, l'audacieux chimiste étaye la proposition, à la suite de Franz-Joseph Müller von Reichenstein en 1782, formulant l'existence un nouvel élément tellurique à partir d'échantillons de minerais. Reprenant ces recherches intéressantes mais inabouties, Klaproth, averti par ses soins, isole et caractérise le corps simple caractéristique qu'il dénomme le tellure natif à l'état naturel, développe les rudiments d'une chimie du tellure en prouvant l'existence d'un élément sous-jacent nouveau le tellurium.
 Il est notamment l’auteur, avec Franz de Paula Adam von Waldstein (1759-1823), de Francisci comitis Waldstein (M. A. Schmidt, Vienne, trois volumes, 1802-1812).
-Une plante lui est dédiée : Viola kitaibeliana, une toute petite pensée sauvage à pétales blanc jaunâtre qui se rencontre dans les dunes littorales ; ainsi qu'une espèce de lézard, Ablepharus kitaibelii[1].
+Une plante lui est dédiée : Viola kitaibeliana, une toute petite pensée sauvage à pétales blanc jaunâtre qui se rencontre dans les dunes littorales ; ainsi qu'une espèce de lézard, Ablepharus kitaibelii.
 </t>
         </is>
       </c>
